--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -25,6 +25,33 @@
   </si>
   <si>
     <t>1. Prepared PPT on arrays part for perl                                     2.Solved a medium level Hackerrank program each in python and C                                         3. Cross checking updated data base with previous one for birthday application</t>
+  </si>
+  <si>
+    <t>1. Prepared PPT on hashes and scalars for perl                                      2. Solved 2 python programs in hackerrank,in merge-tools program all testcases did not pass. Need to optimise the code.                                      3. In C solved one program in hackerrank.                                            4. Installed filezilla,forticlient and putty to push updated birthday application database to server. Still need to push it to server.</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Python programs</t>
+  </si>
+  <si>
+    <t>C-programs</t>
+  </si>
+  <si>
+    <t>1.compressString-1.py</t>
+  </si>
+  <si>
+    <t>1. merge-the-tools-code-2.py            2. splitString-3.py</t>
+  </si>
+  <si>
+    <t>1.counting-valleys-code-2.c</t>
+  </si>
+  <si>
+    <t>1.greedyFlorist-1.c</t>
+  </si>
+  <si>
+    <t>commit 2a46f5a94409ccb07529f012adb19efece23491a</t>
   </si>
 </sst>
 </file>
@@ -369,31 +396,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="120">
+    <row r="2" spans="1:5" ht="120">
       <c r="A2" s="1">
         <v>44287</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="210">
+      <c r="A3" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -42,9 +42,6 @@
     <t>1.compressString-1.py</t>
   </si>
   <si>
-    <t>1. merge-the-tools-code-2.py            2. splitString-3.py</t>
-  </si>
-  <si>
     <t>1.counting-valleys-code-2.c</t>
   </si>
   <si>
@@ -52,6 +49,21 @@
   </si>
   <si>
     <t>commit 2a46f5a94409ccb07529f012adb19efece23491a</t>
+  </si>
+  <si>
+    <t>commit 12355378032edcc68ced491d2a988d018d49930b</t>
+  </si>
+  <si>
+    <t>1. merge-the-tools-code-2.py               2. splitString-3.py</t>
+  </si>
+  <si>
+    <t>1.List-Comprehensions-code-4.py       2.find-second-maximum-number-in-a-list-code.py</t>
+  </si>
+  <si>
+    <t>1.maximizing-xor-code.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Added comments,operators and boolean value topics in PPT for perl                                                  2. Solved 2 python programs in hackerrank                                          3. In C solved one program in hackerrank.                                            </t>
   </si>
 </sst>
 </file>
@@ -396,17 +408,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -435,13 +447,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="210">
@@ -451,11 +463,28 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
+    </row>
+    <row r="4" spans="1:5" ht="105">
+      <c r="A4" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t xml:space="preserve">1. Added comments,operators and boolean value topics in PPT for perl                                                  2. Solved 2 python programs in hackerrank                                          3. In C solved one program in hackerrank.                                            </t>
+  </si>
+  <si>
+    <t>commit b162e718f7c05c3935eac25e62f235d33da6e2d2 (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Added decision making statements,variable and loops in PPT for perl.                                           2. Solved 1 python program in hackerrank.                                            3. Attended mock interview.     </t>
+  </si>
+  <si>
+    <t>1. swap-case-code.py</t>
   </si>
 </sst>
 </file>
@@ -408,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,11 +489,25 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90">
+      <c r="A5" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>1. swap-case-code.py</t>
+  </si>
+  <si>
+    <t>commit 12b1dad169bb141a3c734d52f09657825d054c33</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>1. Updated the birthday wishes database.                                             2. Solved 2 python programs in hackerrank.                                             3. Solved 1 C program in hackerrank.                                             4. Learnt about lists and strings in perl.</t>
+  </si>
+  <si>
+    <t>1.py-set-intersection-operation-code-7.py                                                                        2.py-set-difference-operation-code-8.py</t>
+  </si>
+  <si>
+    <t>1.kangaroo-code-4.c</t>
   </si>
 </sst>
 </file>
@@ -417,16 +432,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
   </cols>
@@ -499,15 +515,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="90">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="90">
+      <c r="A6" s="1">
         <v>44409</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120">
+      <c r="A7" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>1.kangaroo-code-4.c</t>
+  </si>
+  <si>
+    <t>commit 821133b482cf1d442d8a5aca27adcbab1af9f672</t>
+  </si>
+  <si>
+    <t>1. Synced up with Pavani to show how to access server and upload files. Added my mail ID in birthday application in Bcc.             2. Solved 1 python program in hackerrank.                                            3. Solved 1 C program in hackerrank.                                            4. Learnt about oops concepts like classes,objects,methods,constructors and destructors.</t>
+  </si>
+  <si>
+    <t>1. the-birthday-bar-code-5.c</t>
+  </si>
+  <si>
+    <t>1.nested-list-code-9.py</t>
   </si>
 </sst>
 </file>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,11 +557,28 @@
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="180">
+      <c r="A8" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>1.nested-list-code-9.py</t>
+  </si>
+  <si>
+    <t>commit 63845c84be5ddcefa637509bc2670e334088656b</t>
+  </si>
+  <si>
+    <t>13/1/2021</t>
+  </si>
+  <si>
+    <t>1. Searched and Listed out different git commands.                  2. Learnt about method overriding and polymorphism. Prepared ppt for classes,objects,methods,constructors,destructors,method overriding and polymorphism.</t>
   </si>
 </sst>
 </file>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,11 +583,22 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="120">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>1. Searched and Listed out different git commands.                  2. Learnt about method overriding and polymorphism. Prepared ppt for classes,objects,methods,constructors,destructors,method overriding and polymorphism.</t>
+  </si>
+  <si>
+    <t>commit 1ce8e6625176dafb47d2096d0ab9c65ec0703b8b                        commit 1c1cd8c72672a32f3f9d98cfb2b181850bf91ede</t>
+  </si>
+  <si>
+    <t>15/1/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Learnt about encapsulation and inheritence concepts and prepared the PPT for the same.    2.Solved 2 python hackerrank programs.                                                4.Solved 1 C hackerrank program    5. Added few more git commands and need to cross check with teammates commands.                                             </t>
+  </si>
+  <si>
+    <t>1.python-mutations-code-10.py        2.find-a-string-code-11.py</t>
+  </si>
+  <si>
+    <t>1.apple-and-orange-code-6.c</t>
   </si>
 </sst>
 </file>
@@ -453,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,6 +614,23 @@
       </c>
       <c r="B9" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="150">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -27,9 +27,6 @@
     <t>1. Prepared PPT on arrays part for perl                                     2.Solved a medium level Hackerrank program each in python and C                                         3. Cross checking updated data base with previous one for birthday application</t>
   </si>
   <si>
-    <t>1. Prepared PPT on hashes and scalars for perl                                      2. Solved 2 python programs in hackerrank,in merge-tools program all testcases did not pass. Need to optimise the code.                                      3. In C solved one program in hackerrank.                                            4. Installed filezilla,forticlient and putty to push updated birthday application database to server. Still need to push it to server.</t>
-  </si>
-  <si>
     <t>Commit</t>
   </si>
   <si>
@@ -63,15 +60,9 @@
     <t>1.maximizing-xor-code.c</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Added comments,operators and boolean value topics in PPT for perl                                                  2. Solved 2 python programs in hackerrank                                          3. In C solved one program in hackerrank.                                            </t>
-  </si>
-  <si>
     <t>commit b162e718f7c05c3935eac25e62f235d33da6e2d2 (</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Added decision making statements,variable and loops in PPT for perl.                                           2. Solved 1 python program in hackerrank.                                            3. Attended mock interview.     </t>
-  </si>
-  <si>
     <t>1. swap-case-code.py</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>commit 821133b482cf1d442d8a5aca27adcbab1af9f672</t>
   </si>
   <si>
-    <t>1. Synced up with Pavani to show how to access server and upload files. Added my mail ID in birthday application in Bcc.             2. Solved 1 python program in hackerrank.                                            3. Solved 1 C program in hackerrank.                                            4. Learnt about oops concepts like classes,objects,methods,constructors and destructors.</t>
-  </si>
-  <si>
     <t>1. the-birthday-bar-code-5.c</t>
   </si>
   <si>
@@ -117,13 +105,43 @@
     <t>15/1/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Learnt about encapsulation and inheritence concepts and prepared the PPT for the same.    2.Solved 2 python hackerrank programs.                                                4.Solved 1 C hackerrank program    5. Added few more git commands and need to cross check with teammates commands.                                             </t>
-  </si>
-  <si>
     <t>1.python-mutations-code-10.py        2.find-a-string-code-11.py</t>
   </si>
   <si>
     <t>1.apple-and-orange-code-6.c</t>
+  </si>
+  <si>
+    <t>commit 21dade0cf7cb35db334c71cb0bafc53b075907e0</t>
+  </si>
+  <si>
+    <t>18/1/2021</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>19/1/2021</t>
+  </si>
+  <si>
+    <t>1. Prepared PPT on hashes and scalars for perl                                      2. Solved 2 python programs in hackerrank,in merge-tools program all testcases did not pass. Need to optimise the code.                                                                       3. In C solved one program in hackerrank.                                            4. Installed filezilla,forticlient and putty to push updated birthday application database to server. Still need to push it to server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Added comments,operators and boolean value topics in PPT for perl                                                                    2. Solved 2 python programs in hackerrank                                          3. In C solved one program in hackerrank.                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Added decision making statements,variable and loops in PPT for perl.                                                                   2. Solved 1 python program in hackerrank.                                            3. Attended mock interview.     </t>
+  </si>
+  <si>
+    <t>1. Synced up with Pavani to show how to access server and upload files. Added my mail ID in birthday application in Bcc.                                                                         2. Solved 1 python program in hackerrank.                                            3. Solved 1 C program in hackerrank.                                            4. Learnt about oops concepts like classes,objects,methods,constructors and destructors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Learnt about encapsulation and inheritence concepts and prepared the PPT for the same.    2.Solved 2 python hackerrank programs.                                                3.Solved 1 C hackerrank program                                           4. Added few more git commands and need to cross check with teammates commands.                                             </t>
+  </si>
+  <si>
+    <t>1.finding-the-percentage-code-12.py</t>
+  </si>
+  <si>
+    <t>1. Synced up with Tulasi and Pavani to learn about yesterdays Testing session concepts.                                   2. Birthday wishes mail got trigerred at wrong date and it was delivered to members in cc and bcc but not to the employee having birthday. Saw that 'To' was assigned employee name and thought it was the mistake.After checking with Tejaswi it is seen that 'To' was just for mentioning name and while sending receiver mailID is only taken . So changed Tulasis bday to todays date and executed script in my PC. Mail got delivered successfully to both Tulasi and cc member. Need to debug more to find actual cause of issue.                         3.Updated 22 new git commands in cheat sheet.                                      4. Solved 1 Python hackerrank program.                                                  5. Started learning file handling basics in Perl.</t>
   </si>
 </sst>
 </file>
@@ -167,13 +185,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,16 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
@@ -491,147 +515,172 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="120">
+    </row>
+    <row r="2" spans="1:5" ht="75">
       <c r="A2" s="1">
         <v>44287</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="210">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="120">
       <c r="A3" s="1">
         <v>44317</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60">
       <c r="A4" s="1">
         <v>44348</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>44378</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="90">
+    <row r="6" spans="1:5" ht="60">
       <c r="A6" s="1">
         <v>44409</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="1">
         <v>44501</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="180">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120">
       <c r="A8" s="1">
         <v>44531</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="90">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="120">
-      <c r="A9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="150">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="240">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -142,6 +142,19 @@
   </si>
   <si>
     <t>1. Synced up with Tulasi and Pavani to learn about yesterdays Testing session concepts.                                   2. Birthday wishes mail got trigerred at wrong date and it was delivered to members in cc and bcc but not to the employee having birthday. Saw that 'To' was assigned employee name and thought it was the mistake.After checking with Tejaswi it is seen that 'To' was just for mentioning name and while sending receiver mailID is only taken . So changed Tulasis bday to todays date and executed script in my PC. Mail got delivered successfully to both Tulasi and cc member. Need to debug more to find actual cause of issue.                         3.Updated 22 new git commands in cheat sheet.                                      4. Solved 1 Python hackerrank program.                                                  5. Started learning file handling basics in Perl.</t>
+  </si>
+  <si>
+    <t>20/1/2021</t>
+  </si>
+  <si>
+    <t>1.Server code had msg['To'] having only name as argument in send mail method. So that is why Afreen did not receive mail. The code which was given to me as Server code had receiverid in place of msg['To']. That is why when tested locally mail was sent to Tulasi.
+So I assigned receiver id to the msg['To' ] and tested the code locally and also in server by scheduling. It worked fine. I changed bday dates of Tejaswi and Ashleshas as today and asked them to check the mails. They received it. So date wise also code worked fine. Afrins was a unique case.                                                              2. Solved 2 C hackerrank programs. Lonely integer code did not pass all testcases. Need to solve it.                          3. Solved 1 Python hackerrank program.                                4. Attended testing concepts session.                                     5. Read about modes of file handling in Perl.</t>
+  </si>
+  <si>
+    <t>1. string-validators-code-13.py</t>
+  </si>
+  <si>
+    <t>1.lonely-integer-code-8.c                2.flipping-bits-code-7.c</t>
   </si>
 </sst>
 </file>
@@ -494,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -679,8 +692,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:5" ht="255">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>1.lonely-integer-code-8.c                2.flipping-bits-code-7.c</t>
+  </si>
+  <si>
+    <t>21/1/2021</t>
+  </si>
+  <si>
+    <t>commit bd4375d5a46963f4403592a5be1040c841a1160a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.lonely-integer-code-8.c  </t>
+  </si>
+  <si>
+    <t>1. Learnt about SDLC and its types like waterfall,v-type,iterative,Bigbang and Agile models.                             2. Attended testing concepts session.                                     3. Attended session on leave balance application.            4. Read about redirecting output,file opening,reading ,reading multiple lines , exception handling and writing to a file.                                                                                 5. Modified lonely integer program in C of hackerrank. All the testcases are solved.</t>
   </si>
 </sst>
 </file>
@@ -505,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -693,17 +705,31 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="255">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="135">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>1. Learnt about SDLC and its types like waterfall,v-type,iterative,Bigbang and Agile models.                             2. Attended testing concepts session.                                     3. Attended session on leave balance application.            4. Read about redirecting output,file opening,reading ,reading multiple lines , exception handling and writing to a file.                                                                                 5. Modified lonely integer program in C of hackerrank. All the testcases are solved.</t>
+  </si>
+  <si>
+    <t>commit 6861bfdb2f1695dcdd5000126ca57e3481f1b01a</t>
+  </si>
+  <si>
+    <t>22/1/2021</t>
+  </si>
+  <si>
+    <t>1. Prepared PPT for file handling concepts like reading ,writing,opening a file. Redirecting output to file or console. Different modes of opening a file. Exception handling. Different useful inbuilt methods.                         2. Read about regex basics and its operators.                      3. Solved 2 python hackerrank programs.</t>
+  </si>
+  <si>
+    <t>1.symmetric-difference-code-14.py      2.capitalize-15.py</t>
   </si>
 </sst>
 </file>
@@ -517,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,8 +740,22 @@
       <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="105">
+      <c r="A15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>1.symmetric-difference-code-14.py      2.capitalize-15.py</t>
+  </si>
+  <si>
+    <t>15/2/2021</t>
+  </si>
+  <si>
+    <t>1.Prepared for testing session.                                                   2. Attended C/DS/OS discussion session                             3. Practiced interview programs</t>
   </si>
 </sst>
 </file>
@@ -529,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,6 +762,14 @@
       </c>
       <c r="D15" s="2" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>1.Prepared for testing session.                                                   2. Attended C/DS/OS discussion session                             3. Practiced interview programs</t>
+  </si>
+  <si>
+    <t>16/2/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Learnt Python interview questions on its advantages,applications,how interpreter works,what is bytecode.                                                                                     2. Read about ARM processor.                                                    3. Attended C/DS/OS discussion session and executed 3 questions and understood them.                                           </t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -770,6 +776,14 @@
       </c>
       <c r="B17" s="5" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90">
+      <c r="A18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
+++ b/Santhoshi/Santhoshi_B&I_StatusSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t xml:space="preserve">1. Learnt Python interview questions on its advantages,applications,how interpreter works,what is bytecode.                                                                                     2. Read about ARM processor.                                                    3. Attended C/DS/OS discussion session and executed 3 questions and understood them.                                           </t>
+  </si>
+  <si>
+    <t>17/2/2021</t>
+  </si>
+  <si>
+    <t>1.Practiced files in python on accessing, reading line by line, counting all lines, seeking,different types of closing.                                                                                              2. Attended C/DS/OS discussion session.                              3. Wrote 5 c programs and searched about usage of extern in functions of header files.</t>
+  </si>
+  <si>
+    <t>1.bytebybyte.c                                      2.segfault.c                                             3.occurance.c                                           4.clearbit.c                                           5.setbits.c</t>
+  </si>
+  <si>
+    <t>commit 473e1d628632b5d7b1ff973a57be3134241a39d6</t>
   </si>
 </sst>
 </file>
@@ -234,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -246,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -770,7 +785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45">
+    <row r="17" spans="1:5" ht="45">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -778,12 +793,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="90">
+    <row r="18" spans="1:5" ht="90">
       <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>57</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="90">
+      <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
